--- a/res/ExosNbSiSommeSi.xlsx
+++ b/res/ExosNbSiSommeSi.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="226">
   <si>
     <t xml:space="preserve">HISTOIRE</t>
   </si>
@@ -929,16 +929,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1095,100 +1093,80 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="1" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1283,9 +1261,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>599760</xdr:colOff>
+      <xdr:colOff>599400</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1295,7 +1273,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="66600" y="3438360"/>
-          <a:ext cx="7835400" cy="756720"/>
+          <a:ext cx="7835040" cy="756360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1332,7 +1310,17 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>Vous calculez en une cellule la moyenne de chaque élève en tenant compte des coefficients de chaque matières avec la fonction SOMMEPROD.</a:t>
+            <a:t>1. Vous calculez en une cellule la moyenne de chaque élève en tenant compte des coefficients de chaque matières avec la fonction SOMMEPROD. La moyenne pondérée se calcule ainsi : </a:t>
+          </a:r>
+          <a:br/>
+          <a:r>
+            <a:rPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>chaque note est multipliée par son coefficient, et le résultat pour chaque note est ajouté au total (Sommeprod). Ce résultat est ensuite divisé par la somme des coefficient.</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1351,7 +1339,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>En C14, vous calculez le nombre de moyennes &gt;12 avec la fonction NB.SI</a:t>
+            <a:t>2. En C14, vous calculez le nombre de moyennes &gt;12 avec la fonction NB.SI</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1375,9 +1363,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>489240</xdr:colOff>
+      <xdr:colOff>488880</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>136080</xdr:rowOff>
+      <xdr:rowOff>135720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1387,7 +1375,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="442440" y="3850920"/>
-          <a:ext cx="3335760" cy="841680"/>
+          <a:ext cx="3334320" cy="841320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1424,7 +1412,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>1. Calculez le cout total, de la "facture" pommes en une seule cellule (F2) avec la fonction SOMMEPROD</a:t>
+            <a:t>1. Calculez le cout total, de la "facture" de pommes avec la fonction Somme.SI : vous pouvez avoir besoin de créer un nouvelle colonne au préalable.</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="fr-FR" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1477,9 +1465,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>200520</xdr:colOff>
+      <xdr:colOff>200160</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1488,8 +1476,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4556880" y="5267160"/>
-          <a:ext cx="3241800" cy="807840"/>
+          <a:off x="4553640" y="5267160"/>
+          <a:ext cx="3238560" cy="807480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1538,6 +1526,25 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="fr-FR" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Pour faire ce calcul via une seule formule qui est étendue, vous pourrez utiliser Donnés &gt; Convertir sur la plage A31:39.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="fr-FR" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:endParaRPr b="0" lang="fr-FR" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
@@ -1574,13 +1581,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>124200</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>10080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>607320</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:colOff>606960</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>168840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1590,8 +1597,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="124200" y="2814120"/>
-          <a:ext cx="4767840" cy="859680"/>
+          <a:off x="124200" y="1762560"/>
+          <a:ext cx="4763160" cy="859680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1628,7 +1635,17 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>1. Commencez par nommer la plage A1:A6 et la plage  C1:C6 → https://support.office.com/fr-fr/article/D%C3%A9finir-et-utiliser-des-noms-dans-les-formules-4D0F13AC-53B7-422E-AFD2-ABD7FF379C64</a:t>
+            <a:t>1. Commencez par nommer la plage A1:A6 et la plage  C1:C6.</a:t>
+          </a:r>
+          <a:br/>
+          <a:r>
+            <a:rPr b="0" lang="fr-FR" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Pour cela, le lien suivant vous explique comment nommer des plages de cellules afin de pouvoir réutiliser ces noms dans des formules : https://support.office.com/fr-fr/article/D%C3%A9finir-et-utiliser-des-noms-dans-les-formules-4D0F13AC-53B7-422E-AFD2-ABD7FF379C64</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="fr-FR" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1681,9 +1698,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>178200</xdr:colOff>
+      <xdr:colOff>177840</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>112680</xdr:rowOff>
+      <xdr:rowOff>112320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1692,8 +1709,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="773280" y="5441400"/>
-          <a:ext cx="3689640" cy="421560"/>
+          <a:off x="772560" y="5441400"/>
+          <a:ext cx="3685680" cy="421200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1754,9 +1771,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>437400</xdr:colOff>
+      <xdr:colOff>437040</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>69840</xdr:rowOff>
+      <xdr:rowOff>69480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1766,7 +1783,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="181080" y="3580200"/>
-          <a:ext cx="5806800" cy="831600"/>
+          <a:ext cx="5804280" cy="831240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1853,13 +1870,13 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="20.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2118,9 +2135,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2410,7 +2427,7 @@
   </sheetPr>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -3608,10 +3625,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3716,109 +3733,14 @@
       </c>
       <c r="D6" s="32"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="41"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="31" t="n">
-        <v>52</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="42"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" s="31" t="n">
-        <v>66</v>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="43"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="C11" s="31" t="n">
-        <v>120</v>
-      </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="C12" s="31" t="n">
-        <v>25</v>
-      </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="C13" s="31" t="n">
-        <v>88</v>
-      </c>
-      <c r="D13" s="32"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="C14" s="31" t="n">
-        <v>95</v>
-      </c>
-      <c r="D14" s="32"/>
-    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3827,22 +3749,12 @@
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="4">
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="I3:K4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="E12:H12"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3874,770 +3786,770 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="47"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="48" t="n">
+      <c r="A2" s="42" t="n">
         <v>110</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="F2" s="48" t="n">
+      <c r="F2" s="42" t="n">
         <v>2003</v>
       </c>
-      <c r="G2" s="48" t="n">
+      <c r="G2" s="42" t="n">
         <v>200</v>
       </c>
       <c r="H2" s="13" t="n">
         <v>150</v>
       </c>
-      <c r="I2" s="49" t="n">
+      <c r="I2" s="43" t="n">
         <v>4.095</v>
       </c>
-      <c r="J2" s="49" t="n">
+      <c r="J2" s="43" t="n">
         <f aca="false">I2*G2</f>
         <v>819</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="48" t="n">
+      <c r="A3" s="42" t="n">
         <v>120</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="F3" s="48" t="n">
+      <c r="F3" s="42" t="n">
         <v>2002</v>
       </c>
-      <c r="G3" s="48" t="n">
+      <c r="G3" s="42" t="n">
         <v>300</v>
       </c>
       <c r="H3" s="13" t="n">
         <v>300</v>
       </c>
-      <c r="I3" s="49" t="n">
+      <c r="I3" s="43" t="n">
         <v>2.769</v>
       </c>
-      <c r="J3" s="49" t="n">
+      <c r="J3" s="43" t="n">
         <f aca="false">I3*G3</f>
         <v>830.7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="48" t="n">
+      <c r="A4" s="42" t="n">
         <v>130</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="F4" s="48" t="n">
+      <c r="F4" s="42" t="n">
         <v>2003</v>
       </c>
-      <c r="G4" s="48" t="n">
+      <c r="G4" s="42" t="n">
         <v>300</v>
       </c>
       <c r="H4" s="13" t="n">
         <v>250</v>
       </c>
-      <c r="I4" s="49" t="n">
+      <c r="I4" s="43" t="n">
         <v>3.471</v>
       </c>
-      <c r="J4" s="49" t="n">
+      <c r="J4" s="43" t="n">
         <f aca="false">I4*G4</f>
         <v>1041.3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="48" t="n">
+      <c r="A5" s="42" t="n">
         <v>140</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="F5" s="48" t="n">
+      <c r="F5" s="42" t="n">
         <v>2002</v>
       </c>
-      <c r="G5" s="48" t="n">
+      <c r="G5" s="42" t="n">
         <v>200</v>
       </c>
       <c r="H5" s="13" t="n">
         <v>220</v>
       </c>
-      <c r="I5" s="49" t="n">
+      <c r="I5" s="43" t="n">
         <v>2.769</v>
       </c>
-      <c r="J5" s="49" t="n">
+      <c r="J5" s="43" t="n">
         <f aca="false">I5*G5</f>
         <v>553.8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="48" t="n">
+      <c r="A6" s="42" t="n">
         <v>150</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="F6" s="48" t="n">
+      <c r="F6" s="42" t="n">
         <v>2003</v>
       </c>
-      <c r="G6" s="48" t="n">
+      <c r="G6" s="42" t="n">
         <v>120</v>
       </c>
       <c r="H6" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="I6" s="49" t="n">
+      <c r="I6" s="43" t="n">
         <v>2.704</v>
       </c>
-      <c r="J6" s="49" t="n">
+      <c r="J6" s="43" t="n">
         <f aca="false">I6*G6</f>
         <v>324.48</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="48" t="n">
+      <c r="A7" s="42" t="n">
         <v>160</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="F7" s="48" t="n">
+      <c r="F7" s="42" t="n">
         <v>2003</v>
       </c>
-      <c r="G7" s="48" t="n">
+      <c r="G7" s="42" t="n">
         <v>230</v>
       </c>
       <c r="H7" s="13" t="n">
         <v>250</v>
       </c>
-      <c r="I7" s="49" t="n">
+      <c r="I7" s="43" t="n">
         <v>2.912</v>
       </c>
-      <c r="J7" s="49" t="n">
+      <c r="J7" s="43" t="n">
         <f aca="false">I7*G7</f>
         <v>669.76</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="48" t="n">
+      <c r="A8" s="42" t="n">
         <v>170</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="F8" s="48" t="n">
+      <c r="F8" s="42" t="n">
         <v>2002</v>
       </c>
-      <c r="G8" s="48" t="n">
+      <c r="G8" s="42" t="n">
         <v>300</v>
       </c>
       <c r="H8" s="13" t="n">
         <v>200</v>
       </c>
-      <c r="I8" s="49" t="n">
+      <c r="I8" s="43" t="n">
         <v>2.639</v>
       </c>
-      <c r="J8" s="49" t="n">
+      <c r="J8" s="43" t="n">
         <f aca="false">I8*G8</f>
         <v>791.7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="48" t="n">
+      <c r="A9" s="42" t="n">
         <v>180</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="F9" s="48" t="n">
+      <c r="F9" s="42" t="n">
         <v>2003</v>
       </c>
-      <c r="G9" s="48" t="n">
+      <c r="G9" s="42" t="n">
         <v>120</v>
       </c>
       <c r="H9" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="I9" s="49" t="n">
+      <c r="I9" s="43" t="n">
         <v>3.471</v>
       </c>
-      <c r="J9" s="49" t="n">
+      <c r="J9" s="43" t="n">
         <f aca="false">I9*G9</f>
         <v>416.52</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="48" t="n">
+      <c r="A10" s="42" t="n">
         <v>190</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="F10" s="48" t="n">
+      <c r="F10" s="42" t="n">
         <v>2003</v>
       </c>
-      <c r="G10" s="48" t="n">
+      <c r="G10" s="42" t="n">
         <v>200</v>
       </c>
       <c r="H10" s="13" t="n">
         <v>200</v>
       </c>
-      <c r="I10" s="49" t="n">
+      <c r="I10" s="43" t="n">
         <v>3.263</v>
       </c>
-      <c r="J10" s="49" t="n">
+      <c r="J10" s="43" t="n">
         <f aca="false">I10*G10</f>
         <v>652.6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="48" t="n">
+      <c r="A11" s="42" t="n">
         <v>200</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="F11" s="48" t="n">
+      <c r="F11" s="42" t="n">
         <v>2002</v>
       </c>
-      <c r="G11" s="48" t="n">
+      <c r="G11" s="42" t="n">
         <v>300</v>
       </c>
       <c r="H11" s="13" t="n">
         <v>250</v>
       </c>
-      <c r="I11" s="49" t="n">
+      <c r="I11" s="43" t="n">
         <v>4.03</v>
       </c>
-      <c r="J11" s="49" t="n">
+      <c r="J11" s="43" t="n">
         <f aca="false">I11*G11</f>
         <v>1209</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="48" t="n">
+      <c r="A12" s="42" t="n">
         <v>210</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="F12" s="48" t="n">
+      <c r="F12" s="42" t="n">
         <v>2003</v>
       </c>
-      <c r="G12" s="48" t="n">
+      <c r="G12" s="42" t="n">
         <v>200</v>
       </c>
       <c r="H12" s="13" t="n">
         <v>200</v>
       </c>
-      <c r="I12" s="49" t="n">
+      <c r="I12" s="43" t="n">
         <v>2.769</v>
       </c>
-      <c r="J12" s="49" t="n">
+      <c r="J12" s="43" t="n">
         <f aca="false">I12*G12</f>
         <v>553.8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="48" t="n">
+      <c r="A13" s="42" t="n">
         <v>230</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="F13" s="48" t="n">
+      <c r="F13" s="42" t="n">
         <v>2002</v>
       </c>
-      <c r="G13" s="48" t="n">
+      <c r="G13" s="42" t="n">
         <v>230</v>
       </c>
       <c r="H13" s="13" t="n">
         <v>200</v>
       </c>
-      <c r="I13" s="49" t="n">
+      <c r="I13" s="43" t="n">
         <v>2.08</v>
       </c>
-      <c r="J13" s="49" t="n">
+      <c r="J13" s="43" t="n">
         <f aca="false">I13*G13</f>
         <v>478.4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="48" t="n">
+      <c r="A14" s="42" t="n">
         <v>240</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="F14" s="48" t="n">
+      <c r="F14" s="42" t="n">
         <v>2002</v>
       </c>
-      <c r="G14" s="48" t="n">
+      <c r="G14" s="42" t="n">
         <v>300</v>
       </c>
       <c r="H14" s="13" t="n">
         <v>250</v>
       </c>
-      <c r="I14" s="49" t="n">
+      <c r="I14" s="43" t="n">
         <v>3.471</v>
       </c>
-      <c r="J14" s="49" t="n">
+      <c r="J14" s="43" t="n">
         <f aca="false">I14*G14</f>
         <v>1041.3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="48" t="n">
+      <c r="A15" s="42" t="n">
         <v>250</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="F15" s="48" t="n">
+      <c r="F15" s="42" t="n">
         <v>2003</v>
       </c>
-      <c r="G15" s="48" t="n">
+      <c r="G15" s="42" t="n">
         <v>170</v>
       </c>
       <c r="H15" s="13" t="n">
         <v>190</v>
       </c>
-      <c r="I15" s="49" t="n">
+      <c r="I15" s="43" t="n">
         <v>3.406</v>
       </c>
-      <c r="J15" s="49" t="n">
+      <c r="J15" s="43" t="n">
         <f aca="false">I15*G15</f>
         <v>579.02</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="48" t="n">
+      <c r="A16" s="42" t="n">
         <v>260</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="F16" s="48" t="n">
+      <c r="F16" s="42" t="n">
         <v>2003</v>
       </c>
-      <c r="G16" s="48" t="n">
+      <c r="G16" s="42" t="n">
         <v>260</v>
       </c>
       <c r="H16" s="13" t="n">
         <v>200</v>
       </c>
-      <c r="I16" s="49" t="n">
+      <c r="I16" s="43" t="n">
         <v>3.185</v>
       </c>
-      <c r="J16" s="49" t="n">
+      <c r="J16" s="43" t="n">
         <f aca="false">I16*G16</f>
         <v>828.1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="48" t="n">
+      <c r="A17" s="42" t="n">
         <v>270</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="F17" s="48" t="n">
+      <c r="F17" s="42" t="n">
         <v>2002</v>
       </c>
-      <c r="G17" s="48" t="n">
+      <c r="G17" s="42" t="n">
         <v>230</v>
       </c>
       <c r="H17" s="13" t="n">
         <v>170</v>
       </c>
-      <c r="I17" s="49" t="n">
+      <c r="I17" s="43" t="n">
         <v>3.679</v>
       </c>
-      <c r="J17" s="49" t="n">
+      <c r="J17" s="43" t="n">
         <f aca="false">I17*G17</f>
         <v>846.17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="48" t="n">
+      <c r="A18" s="42" t="n">
         <v>280</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="F18" s="48" t="n">
+      <c r="F18" s="42" t="n">
         <v>2003</v>
       </c>
-      <c r="G18" s="48" t="n">
+      <c r="G18" s="42" t="n">
         <v>230</v>
       </c>
       <c r="H18" s="13" t="n">
         <v>150</v>
       </c>
-      <c r="I18" s="49" t="n">
+      <c r="I18" s="43" t="n">
         <v>4.719</v>
       </c>
-      <c r="J18" s="49" t="n">
+      <c r="J18" s="43" t="n">
         <f aca="false">I18*G18</f>
         <v>1085.37</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="48" t="n">
+      <c r="A19" s="42" t="n">
         <v>290</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="F19" s="48" t="n">
+      <c r="F19" s="42" t="n">
         <v>2003</v>
       </c>
-      <c r="G19" s="48" t="n">
+      <c r="G19" s="42" t="n">
         <v>230</v>
       </c>
       <c r="H19" s="13" t="n">
         <v>280</v>
       </c>
-      <c r="I19" s="49" t="n">
+      <c r="I19" s="43" t="n">
         <v>2.639</v>
       </c>
-      <c r="J19" s="49" t="n">
+      <c r="J19" s="43" t="n">
         <f aca="false">I19*G19</f>
         <v>606.97</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="48" t="n">
+      <c r="A20" s="42" t="n">
         <v>300</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="E20" s="48" t="s">
+      <c r="E20" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="F20" s="48" t="n">
+      <c r="F20" s="42" t="n">
         <v>2002</v>
       </c>
-      <c r="G20" s="48" t="n">
+      <c r="G20" s="42" t="n">
         <v>170</v>
       </c>
       <c r="H20" s="13" t="n">
         <v>200</v>
       </c>
-      <c r="I20" s="49" t="n">
+      <c r="I20" s="43" t="n">
         <v>2.704</v>
       </c>
-      <c r="J20" s="49" t="n">
+      <c r="J20" s="43" t="n">
         <f aca="false">I20*G20</f>
         <v>459.68</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="50"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
+      <c r="A22" s="44"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
       <c r="H22" s="11" t="s">
         <v>208</v>
       </c>
       <c r="I22" s="11"/>
-      <c r="J22" s="52"/>
+      <c r="J22" s="46"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="50"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
+      <c r="A23" s="44"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
       <c r="H23" s="11" t="s">
         <v>209</v>
       </c>
       <c r="I23" s="11"/>
-      <c r="J23" s="52"/>
+      <c r="J23" s="46"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
       <c r="H24" s="11" t="s">
         <v>210</v>
       </c>
       <c r="I24" s="11"/>
-      <c r="J24" s="52"/>
+      <c r="J24" s="46"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
       <c r="H25" s="11" t="s">
         <v>211</v>
       </c>
       <c r="I25" s="11"/>
-      <c r="J25" s="52"/>
+      <c r="J25" s="46"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
       <c r="H26" s="11" t="s">
         <v>212</v>
       </c>
       <c r="I26" s="11"/>
-      <c r="J26" s="52"/>
+      <c r="J26" s="46"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
       <c r="H27" s="11" t="s">
         <v>213</v>
       </c>
       <c r="I27" s="11"/>
-      <c r="J27" s="52"/>
+      <c r="J27" s="46"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
       <c r="H28" s="11" t="s">
         <v>214</v>
       </c>
       <c r="I28" s="11"/>
-      <c r="J28" s="52"/>
+      <c r="J28" s="46"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4681,265 +4593,265 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="53"/>
+      <c r="D1" s="47"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="D2" s="53"/>
+      <c r="D2" s="47"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="53"/>
+      <c r="D3" s="47"/>
     </row>
     <row r="4" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="57" t="n">
+      <c r="A5" s="51" t="n">
         <v>39146</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="D5" s="59" t="n">
+      <c r="D5" s="53" t="n">
         <v>2800</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="G5" s="61"/>
+      <c r="G5" s="55"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="57" t="n">
+      <c r="A6" s="51" t="n">
         <v>39146</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="D6" s="59" t="n">
+      <c r="D6" s="53" t="n">
         <v>420</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="I6" s="62"/>
+      <c r="G6" s="55"/>
+      <c r="I6" s="56"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="57" t="n">
+      <c r="A7" s="51" t="n">
         <v>39146</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="D7" s="59" t="n">
+      <c r="D7" s="53" t="n">
         <v>1250</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="63"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="57" t="n">
+      <c r="A8" s="51" t="n">
         <f aca="false">A7+1</f>
         <v>39147</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="52" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="59" t="n">
+      <c r="D8" s="53" t="n">
         <v>3200</v>
       </c>
-      <c r="F8" s="60" t="s">
+      <c r="F8" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="G8" s="64"/>
+      <c r="G8" s="59"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="57" t="n">
+      <c r="A9" s="51" t="n">
         <f aca="false">A8+1</f>
         <v>39148</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="D9" s="59" t="n">
+      <c r="D9" s="53" t="n">
         <v>120</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="G9" s="64"/>
+      <c r="G9" s="59"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="57" t="n">
+      <c r="A10" s="51" t="n">
         <f aca="false">A9</f>
         <v>39148</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="52" t="s">
         <v>223</v>
       </c>
-      <c r="D10" s="59" t="n">
+      <c r="D10" s="53" t="n">
         <v>240</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="57" t="n">
+      <c r="A11" s="51" t="n">
         <f aca="false">A10</f>
         <v>39148</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="D11" s="59" t="n">
+      <c r="D11" s="53" t="n">
         <v>1800</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="57" t="n">
+      <c r="A12" s="51" t="n">
         <f aca="false">A11</f>
         <v>39148</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="52" t="s">
         <v>223</v>
       </c>
-      <c r="D12" s="59" t="n">
+      <c r="D12" s="53" t="n">
         <v>1200</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="57" t="n">
+      <c r="A13" s="51" t="n">
         <f aca="false">A12</f>
         <v>39148</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="52" t="s">
         <v>223</v>
       </c>
-      <c r="D13" s="59" t="n">
+      <c r="D13" s="53" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="57" t="n">
+      <c r="A14" s="51" t="n">
         <f aca="false">A13+1</f>
         <v>39149</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="D14" s="59" t="n">
+      <c r="D14" s="53" t="n">
         <v>250</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="57" t="n">
+      <c r="A15" s="51" t="n">
         <f aca="false">A14+1</f>
         <v>39150</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="52" t="s">
         <v>223</v>
       </c>
-      <c r="D15" s="59" t="n">
+      <c r="D15" s="53" t="n">
         <v>2400</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="57" t="n">
+      <c r="A16" s="51" t="n">
         <f aca="false">A15+1</f>
         <v>39151</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="52" t="s">
         <v>223</v>
       </c>
-      <c r="D16" s="59" t="n">
+      <c r="D16" s="53" t="n">
         <v>2600</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="57" t="n">
+      <c r="A17" s="51" t="n">
         <f aca="false">A16+1</f>
         <v>39152</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="D17" s="59" t="n">
+      <c r="D17" s="53" t="n">
         <v>128</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="57" t="n">
+      <c r="A18" s="51" t="n">
         <f aca="false">A17+1</f>
         <v>39153</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="D18" s="59" t="n">
+      <c r="D18" s="53" t="n">
         <v>249</v>
       </c>
     </row>
